--- a/princess_connect_support/bin/Release/戰隊戰.xlsx
+++ b/princess_connect_support/bin/Release/戰隊戰.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="86">
   <si>
     <t>亞里莎</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,6 +227,138 @@
   </si>
   <si>
     <t>真步黑暗也很不錯用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹿二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>優花梨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亞里莎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>純</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>優衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠理子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月月(借四)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可可蘿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琉球犬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>純(借四)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>純(借五)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深月死 卡深月技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月月會死 在來後排也死 但是傷害高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10秒 全家死光光 13萬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亞里莎換真步 全活 5秒 11萬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月月死 真步死 13萬 5秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放望 月月日和死 5秒 14萬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放深月 14萬 5秒 犬死?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30秒推人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真步 5秒 21萬 全沒死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可蘿換亞里莎 4秒 輸出19萬 全沒死 要賭犬miss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6秒 全家死光光 13萬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布丁 拿犬 兩個miss 可以到17萬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布丁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琉球犬(借四)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>純(借五)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上下兩隻犬傷害差好多?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -588,7 +720,7 @@
     <col min="1" max="1" width="10.25" customWidth="1"/>
     <col min="2" max="2" width="11.625" customWidth="1"/>
     <col min="3" max="3" width="11.75" customWidth="1"/>
-    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="11.75" customWidth="1"/>
     <col min="7" max="7" width="37.25" customWidth="1"/>
   </cols>
@@ -1302,6 +1434,568 @@
       </c>
       <c r="E54">
         <v>6585</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>43368</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" t="s">
+        <v>60</v>
+      </c>
+      <c r="E58" t="s">
+        <v>57</v>
+      </c>
+      <c r="F58">
+        <v>272307</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>79</v>
+      </c>
+      <c r="B59">
+        <v>79</v>
+      </c>
+      <c r="C59">
+        <v>76</v>
+      </c>
+      <c r="D59">
+        <v>76</v>
+      </c>
+      <c r="E59">
+        <v>79</v>
+      </c>
+      <c r="F59" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>109495</v>
+      </c>
+      <c r="B60">
+        <v>77277</v>
+      </c>
+      <c r="C60">
+        <v>64890</v>
+      </c>
+      <c r="D60">
+        <v>10980</v>
+      </c>
+      <c r="E60">
+        <v>9665</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62" t="s">
+        <v>58</v>
+      </c>
+      <c r="E62" t="s">
+        <v>66</v>
+      </c>
+      <c r="F62">
+        <v>275138</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>73</v>
+      </c>
+      <c r="B63">
+        <v>79</v>
+      </c>
+      <c r="C63">
+        <v>79</v>
+      </c>
+      <c r="D63">
+        <v>79</v>
+      </c>
+      <c r="E63">
+        <v>78</v>
+      </c>
+      <c r="F63" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>136755</v>
+      </c>
+      <c r="D64">
+        <v>55875</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D66" t="s">
+        <v>54</v>
+      </c>
+      <c r="E66" t="s">
+        <v>67</v>
+      </c>
+      <c r="F66">
+        <v>192736</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>79</v>
+      </c>
+      <c r="B67">
+        <v>79</v>
+      </c>
+      <c r="C67">
+        <v>79</v>
+      </c>
+      <c r="D67">
+        <v>74</v>
+      </c>
+      <c r="E67">
+        <v>78</v>
+      </c>
+      <c r="F67" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>91997</v>
+      </c>
+      <c r="B68">
+        <v>66010</v>
+      </c>
+      <c r="C68">
+        <v>18881</v>
+      </c>
+      <c r="D68">
+        <v>7085</v>
+      </c>
+      <c r="E68">
+        <v>8763</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>43369</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" t="s">
+        <v>60</v>
+      </c>
+      <c r="E72" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72">
+        <v>176630</v>
+      </c>
+      <c r="G72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>80</v>
+      </c>
+      <c r="B73">
+        <v>80</v>
+      </c>
+      <c r="C73">
+        <v>77</v>
+      </c>
+      <c r="D73">
+        <v>77</v>
+      </c>
+      <c r="E73">
+        <v>79</v>
+      </c>
+      <c r="F73" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>67066</v>
+      </c>
+      <c r="B74">
+        <v>54948</v>
+      </c>
+      <c r="C74">
+        <v>40490</v>
+      </c>
+      <c r="D74">
+        <v>7648</v>
+      </c>
+      <c r="E74">
+        <v>6478</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>39</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" t="s">
+        <v>37</v>
+      </c>
+      <c r="F76">
+        <v>214596</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>74</v>
+      </c>
+      <c r="B77">
+        <v>80</v>
+      </c>
+      <c r="C77">
+        <v>80</v>
+      </c>
+      <c r="D77">
+        <v>80</v>
+      </c>
+      <c r="E77">
+        <v>78</v>
+      </c>
+      <c r="F77" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>26783</v>
+      </c>
+      <c r="B78">
+        <v>31276</v>
+      </c>
+      <c r="C78">
+        <v>102346</v>
+      </c>
+      <c r="D78">
+        <v>44864</v>
+      </c>
+      <c r="E78">
+        <v>9327</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80">
+        <v>227652</v>
+      </c>
+      <c r="G80" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="C81">
+        <v>80</v>
+      </c>
+      <c r="D81">
+        <v>75</v>
+      </c>
+      <c r="E81">
+        <v>78</v>
+      </c>
+      <c r="F81" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>109712</v>
+      </c>
+      <c r="B82">
+        <v>83796</v>
+      </c>
+      <c r="C82">
+        <v>16718</v>
+      </c>
+      <c r="D82">
+        <v>7779</v>
+      </c>
+      <c r="E82">
+        <v>9647</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>43370</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" t="s">
+        <v>30</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" t="s">
+        <v>60</v>
+      </c>
+      <c r="E86" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86">
+        <v>168243</v>
+      </c>
+      <c r="G86" t="s">
+        <v>73</v>
+      </c>
+      <c r="H86" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>80</v>
+      </c>
+      <c r="B87">
+        <v>80</v>
+      </c>
+      <c r="C87">
+        <v>77</v>
+      </c>
+      <c r="D87">
+        <v>80</v>
+      </c>
+      <c r="E87">
+        <v>80</v>
+      </c>
+      <c r="F87" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>65470</v>
+      </c>
+      <c r="B88">
+        <v>53974</v>
+      </c>
+      <c r="C88">
+        <v>33514</v>
+      </c>
+      <c r="D88">
+        <v>8580</v>
+      </c>
+      <c r="E88">
+        <v>6705</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>83</v>
+      </c>
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" t="s">
+        <v>84</v>
+      </c>
+      <c r="F90">
+        <v>243391</v>
+      </c>
+      <c r="G90" t="s">
+        <v>77</v>
+      </c>
+      <c r="H90" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>74</v>
+      </c>
+      <c r="B91">
+        <v>80</v>
+      </c>
+      <c r="C91">
+        <v>80</v>
+      </c>
+      <c r="D91">
+        <v>80</v>
+      </c>
+      <c r="E91">
+        <v>78</v>
+      </c>
+      <c r="F91" t="s">
+        <v>69</v>
+      </c>
+      <c r="G91" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>10501</v>
+      </c>
+      <c r="B92">
+        <v>31014</v>
+      </c>
+      <c r="C92">
+        <v>137216</v>
+      </c>
+      <c r="D92">
+        <v>52678</v>
+      </c>
+      <c r="E92">
+        <v>11982</v>
+      </c>
+      <c r="G92" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I93" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" t="s">
+        <v>82</v>
+      </c>
+      <c r="E94" t="s">
+        <v>81</v>
+      </c>
+      <c r="F94">
+        <v>204404</v>
+      </c>
+      <c r="G94" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>80</v>
+      </c>
+      <c r="B95">
+        <v>80</v>
+      </c>
+      <c r="C95">
+        <v>78</v>
+      </c>
+      <c r="D95">
+        <v>80</v>
+      </c>
+      <c r="E95">
+        <v>80</v>
+      </c>
+      <c r="F95" t="s">
+        <v>69</v>
+      </c>
+      <c r="G95" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>75780</v>
+      </c>
+      <c r="B96">
+        <v>25738</v>
+      </c>
+      <c r="C96">
+        <v>6992</v>
+      </c>
+      <c r="D96">
+        <v>85809</v>
+      </c>
+      <c r="E96">
+        <v>10085</v>
+      </c>
+      <c r="G96" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="97" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G97" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/princess_connect_support/bin/Release/戰隊戰.xlsx
+++ b/princess_connect_support/bin/Release/戰隊戰.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="110">
   <si>
     <t>亞里莎</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -359,6 +359,102 @@
   </si>
   <si>
     <t>上下兩隻犬傷害差好多?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龍二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原一三隊互換與捨棄月月借四星犬好像不一定比較好?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>純(借五)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布丁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月月(借四)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放栞 15秒犬會死 5秒366647</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原隊伍 4秒 298330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠理子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>純</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亞里莎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>優衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>純(借五)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹿二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月月(借四)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>純(借四)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -709,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N97"/>
+  <dimension ref="A1:N144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1993,10 +2089,571 @@
         <v>79</v>
       </c>
     </row>
-    <row r="97" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G97" t="s">
         <v>80</v>
       </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>43371</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>18</v>
+      </c>
+      <c r="B100" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" t="s">
+        <v>29</v>
+      </c>
+      <c r="D100" t="s">
+        <v>87</v>
+      </c>
+      <c r="E100" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100">
+        <v>255129</v>
+      </c>
+      <c r="G100" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>81</v>
+      </c>
+      <c r="B101">
+        <v>81</v>
+      </c>
+      <c r="C101">
+        <v>81</v>
+      </c>
+      <c r="D101">
+        <v>81</v>
+      </c>
+      <c r="E101">
+        <v>78</v>
+      </c>
+      <c r="F101" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>33890</v>
+      </c>
+      <c r="B102">
+        <v>67486</v>
+      </c>
+      <c r="C102">
+        <v>81793</v>
+      </c>
+      <c r="D102">
+        <v>60450</v>
+      </c>
+      <c r="E102">
+        <v>11510</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>27</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" t="s">
+        <v>37</v>
+      </c>
+      <c r="F104">
+        <v>464926</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>81</v>
+      </c>
+      <c r="B105">
+        <v>81</v>
+      </c>
+      <c r="C105">
+        <v>81</v>
+      </c>
+      <c r="D105">
+        <v>81</v>
+      </c>
+      <c r="E105">
+        <v>81</v>
+      </c>
+      <c r="F105" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>132869</v>
+      </c>
+      <c r="B106">
+        <v>43984</v>
+      </c>
+      <c r="C106">
+        <v>89846</v>
+      </c>
+      <c r="D106">
+        <v>180740</v>
+      </c>
+      <c r="E106">
+        <v>17487</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>16</v>
+      </c>
+      <c r="B108" t="s">
+        <v>28</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1</v>
+      </c>
+      <c r="D108" t="s">
+        <v>82</v>
+      </c>
+      <c r="E108" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108">
+        <v>339827</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>81</v>
+      </c>
+      <c r="B109">
+        <v>81</v>
+      </c>
+      <c r="C109">
+        <v>81</v>
+      </c>
+      <c r="D109">
+        <v>81</v>
+      </c>
+      <c r="E109">
+        <v>81</v>
+      </c>
+      <c r="F109" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>89727</v>
+      </c>
+      <c r="B110">
+        <v>68660</v>
+      </c>
+      <c r="C110">
+        <v>31827</v>
+      </c>
+      <c r="D110">
+        <v>137266</v>
+      </c>
+      <c r="E110">
+        <v>12347</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F111">
+        <f>SUM(F100:F109)</f>
+        <v>1059882</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>43372</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>18</v>
+      </c>
+      <c r="B115" t="s">
+        <v>92</v>
+      </c>
+      <c r="C115" t="s">
+        <v>95</v>
+      </c>
+      <c r="D115" t="s">
+        <v>94</v>
+      </c>
+      <c r="E115" t="s">
+        <v>93</v>
+      </c>
+      <c r="F115">
+        <v>220766</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>81</v>
+      </c>
+      <c r="B116">
+        <v>81</v>
+      </c>
+      <c r="C116">
+        <v>81</v>
+      </c>
+      <c r="D116">
+        <v>81</v>
+      </c>
+      <c r="E116">
+        <v>78</v>
+      </c>
+      <c r="F116" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>35703</v>
+      </c>
+      <c r="B117">
+        <v>90789</v>
+      </c>
+      <c r="C117">
+        <v>67119</v>
+      </c>
+      <c r="D117">
+        <v>14122</v>
+      </c>
+      <c r="E117">
+        <v>13033</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>91</v>
+      </c>
+      <c r="B119" t="s">
+        <v>90</v>
+      </c>
+      <c r="C119" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" t="s">
+        <v>3</v>
+      </c>
+      <c r="E119" t="s">
+        <v>89</v>
+      </c>
+      <c r="F119">
+        <v>209698</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>81</v>
+      </c>
+      <c r="B120">
+        <v>81</v>
+      </c>
+      <c r="C120">
+        <v>81</v>
+      </c>
+      <c r="D120">
+        <v>81</v>
+      </c>
+      <c r="E120">
+        <v>81</v>
+      </c>
+      <c r="F120" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>11417</v>
+      </c>
+      <c r="B121">
+        <v>29622</v>
+      </c>
+      <c r="C121">
+        <v>35400</v>
+      </c>
+      <c r="D121">
+        <v>120614</v>
+      </c>
+      <c r="E121">
+        <v>12645</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>16</v>
+      </c>
+      <c r="B123" t="s">
+        <v>28</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1</v>
+      </c>
+      <c r="D123" t="s">
+        <v>82</v>
+      </c>
+      <c r="E123" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123">
+        <v>339827</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>81</v>
+      </c>
+      <c r="B124">
+        <v>81</v>
+      </c>
+      <c r="C124">
+        <v>81</v>
+      </c>
+      <c r="D124">
+        <v>81</v>
+      </c>
+      <c r="E124">
+        <v>81</v>
+      </c>
+      <c r="F124" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>89727</v>
+      </c>
+      <c r="B125">
+        <v>68660</v>
+      </c>
+      <c r="C125">
+        <v>31827</v>
+      </c>
+      <c r="D125">
+        <v>200000</v>
+      </c>
+      <c r="E125">
+        <v>12347</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F126">
+        <f>SUM(F115:F124)</f>
+        <v>770291</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>43373</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>98</v>
+      </c>
+      <c r="B130" t="s">
+        <v>99</v>
+      </c>
+      <c r="C130" t="s">
+        <v>108</v>
+      </c>
+      <c r="D130" t="s">
+        <v>101</v>
+      </c>
+      <c r="E130" t="s">
+        <v>100</v>
+      </c>
+      <c r="F130">
+        <v>305305</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>82</v>
+      </c>
+      <c r="B131">
+        <v>82</v>
+      </c>
+      <c r="C131">
+        <v>78</v>
+      </c>
+      <c r="D131">
+        <v>82</v>
+      </c>
+      <c r="E131">
+        <v>82</v>
+      </c>
+      <c r="F131" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>139313</v>
+      </c>
+      <c r="B132">
+        <v>101079</v>
+      </c>
+      <c r="C132">
+        <v>44387</v>
+      </c>
+      <c r="D132">
+        <v>11033</v>
+      </c>
+      <c r="E132">
+        <v>9493</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>105</v>
+      </c>
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" t="s">
+        <v>3</v>
+      </c>
+      <c r="D134" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" t="s">
+        <v>106</v>
+      </c>
+      <c r="F134">
+        <v>303519</v>
+      </c>
+      <c r="G134" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>82</v>
+      </c>
+      <c r="B135">
+        <v>82</v>
+      </c>
+      <c r="C135">
+        <v>82</v>
+      </c>
+      <c r="D135">
+        <v>82</v>
+      </c>
+      <c r="E135">
+        <v>80</v>
+      </c>
+      <c r="F135" t="s">
+        <v>107</v>
+      </c>
+      <c r="G135" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>24206</v>
+      </c>
+      <c r="B136">
+        <v>51506</v>
+      </c>
+      <c r="C136">
+        <v>145790</v>
+      </c>
+      <c r="D136">
+        <v>65251</v>
+      </c>
+      <c r="E136">
+        <v>16766</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>102</v>
+      </c>
+      <c r="B138" t="s">
+        <v>103</v>
+      </c>
+      <c r="C138" t="s">
+        <v>104</v>
+      </c>
+      <c r="D138" t="s">
+        <v>13</v>
+      </c>
+      <c r="E138" t="s">
+        <v>109</v>
+      </c>
+      <c r="F138">
+        <v>226616</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>82</v>
+      </c>
+      <c r="B139">
+        <v>82</v>
+      </c>
+      <c r="C139">
+        <v>82</v>
+      </c>
+      <c r="D139">
+        <v>82</v>
+      </c>
+      <c r="E139">
+        <v>79</v>
+      </c>
+      <c r="F139" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>100794</v>
+      </c>
+      <c r="B140">
+        <v>90952</v>
+      </c>
+      <c r="C140">
+        <v>19049</v>
+      </c>
+      <c r="D140">
+        <v>7973</v>
+      </c>
+      <c r="E140">
+        <v>7848</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F141">
+        <f>SUM(F130:F139)</f>
+        <v>835440</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
